--- a/August 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_August.xlsx
+++ b/August 2018/Saturday_Sunday_Weekday/Validation/Valid_SatModel_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\August 2018\Saturday_Sunday_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{962D713B-B765-419A-94A6-2D2567B7757E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC9D999-99D2-4ECA-B060-0DF17D8F2978}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{B0131BC9-B105-484B-975D-31D612C14559}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{C6976FCC-2490-4413-9990-B7B92F74ECAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="19" r:id="rId1"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32390A82-359A-4881-8816-BBCBCFF57726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6458EF8D-F113-4065-A5FD-D2B72A785BC6}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1521,53 +1521,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{DA9F7375-96C2-49D6-A0F5-894EE537076D}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{461EA441-7A11-4561-AA56-CE2F5291C832}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{E211F266-5AEA-4DBD-8839-6F08CFBB10A6}"/>
-    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{60AD4170-2702-42EF-A190-CECDA3E29711}"/>
-    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{998F4314-54D2-4741-8B7A-E448E9A4B571}"/>
-    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{D3EE90E5-38DD-4FE0-9414-7D8178F3A740}"/>
-    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{4BA192E5-7B19-4E3F-AA21-D4955533DAB3}"/>
-    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{EF439CF6-AC3B-4EDC-8336-B9F845A30D5E}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{42808E63-6F18-4328-A9F7-99606BE51B37}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{CFA55E31-4ED6-4298-897A-E15D41F9CC19}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{22966179-AA84-4ADB-94D9-39BC61BB2F21}"/>
-    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{D2A47779-6481-4C4E-AEC1-274AE2D0610A}"/>
-    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{D908B7AC-53D6-4EBC-9FE2-BF1C80410B10}"/>
-    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{4B450072-EC01-4ECA-BDCD-F3C287690F7A}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{40CF9539-B642-4F36-BFA2-56B63BA3DE57}"/>
-    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{9B6A184C-7B7C-4405-B0EF-1D052671871C}"/>
-    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{B0130546-8EEC-4104-800E-AFB7A41092F2}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{A3B9BBDF-3F44-41F1-A49D-87208F043F88}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{453D55FA-3357-4A6D-8793-B45BC43C3B7A}"/>
-    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{A6012F36-974C-43EA-BDD1-D4C68F7E3CB5}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{527671AE-70D7-493D-AEEF-D490679D0F37}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{4E2D299E-82E5-48F4-B8DE-7FF187121CB3}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{6B7758A1-5953-4CC9-B627-420629E5FA34}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{5B0C9E6A-B13D-4F77-B2AA-ECF8A009DA00}"/>
-    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{DBA8E667-5F55-4E8B-857E-72BF351F9137}"/>
-    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{C159D74D-48D1-40E3-8189-F282230BFD8F}"/>
-    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{BD7722D0-BEF2-4F66-8676-9EAB238576D2}"/>
-    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{24A3D34F-404F-482F-9ADA-B49E677E0066}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{4311190B-9F12-40C3-B2F6-ED127AC42FEB}"/>
-    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{7B2B9AED-21D0-4189-9A44-18EF55CBC0B4}"/>
-    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{513D423F-69E9-4B0C-9D2E-44B340086C60}"/>
-    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{DE24936F-48CC-4145-AD4E-1E2120FA6EAE}"/>
-    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{FC2A3509-9164-4587-BEB8-F3FBF9A3776C}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{45C99E6A-412B-4B8B-AEC0-34835742D7FD}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{EFB47937-AC0B-4639-8685-41005335207E}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{0DEEB2FE-3EF2-4509-8F31-22C07EB3C64A}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{BEE67448-948B-4403-A3B6-20F1400DF4BB}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{2049AA88-BAB5-49E9-9101-944A663E1480}"/>
-    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{701E83DB-CB69-4845-85A3-A3047E6B1F8D}"/>
-    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{D0253860-3D06-4B8D-888C-1D10F04AE3EB}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{459679CB-998C-4321-94AB-185F0CE0DF3D}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{435F4A46-FCE2-4A85-ACDE-E798DA48F4CF}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{6B436F5F-14E3-4923-BA32-75B221D51646}"/>
+    <hyperlink ref="A5" location="Duration!A1" display="Duration" xr:uid="{8F3B720B-C75A-401B-B085-5869E3276AEA}"/>
+    <hyperlink ref="A7" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{6C92EC1C-5F93-4D9D-A414-4A99A4F968BC}"/>
+    <hyperlink ref="A8" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{E68E6411-F58D-4430-83EA-0A2F4BB9DCEF}"/>
+    <hyperlink ref="A9" location="Scalar!A1" display="EQ11_EnergyRevenue" xr:uid="{AFD7D335-7EC5-404F-8114-463B4083A820}"/>
+    <hyperlink ref="A10" location="EQ12_Simulation!A1" display="EQ12_Simulation" xr:uid="{2EFFBFAB-474F-4229-B2F5-F7F4573D319F}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{F059098B-7164-446A-9D59-FF26C4E85868}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{F6B40D1B-8FBF-4C07-8802-F57E311F3A1A}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{3D1D7010-A982-4C1A-BF88-A64829C8BD30}"/>
+    <hyperlink ref="A14" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{F9B9C900-96BF-4B8B-B701-9D35074E687E}"/>
+    <hyperlink ref="A15" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{23DB7C96-84E4-4F97-89AD-AD3B1EB73802}"/>
+    <hyperlink ref="A16" location="EQ6_Rel_Range!A1" display="EQ6_Rel_Range" xr:uid="{B99D3034-F079-4883-96E2-89739A7CDDA0}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="EQ7_RelVolume" xr:uid="{4775CF58-AEC3-4D71-8DE2-98615750BEBC}"/>
+    <hyperlink ref="A18" location="EQ8_OffPeak_Release!A1" display="EQ8_OffPeak_Release" xr:uid="{E4EB9880-C856-44CD-BD55-D28DBED80FF3}"/>
+    <hyperlink ref="A19" location="EQ9_EnergyGen_Max!A1" display="EQ9_EnergyGen_Max" xr:uid="{DB1934A9-1097-40F6-BB13-A343A82380E6}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="evap" xr:uid="{C512084F-890F-4DED-BC4B-EA01BC08B41D}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="FStore" xr:uid="{011C18EC-A6D7-4A90-8142-F7353F64F784}"/>
+    <hyperlink ref="A22" location="Scalar!A1" display="Inflow" xr:uid="{74AB96F3-AB19-4C55-AB7D-EF738F726E9E}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="Initstorage" xr:uid="{0C7C7087-54ED-4A8E-8383-4B7DEF6ADFDB}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="maxRel" xr:uid="{D3460815-A0E6-4A68-BE42-F01FC368FCCD}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="maxstorage" xr:uid="{CE50FE38-7973-425B-B697-9507E33707EC}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="minRel" xr:uid="{10FE5A16-CD88-4A9B-AA3C-DD785C28CC24}"/>
+    <hyperlink ref="A27" location="Scalar!A1" display="minstorage" xr:uid="{D222D33E-EDA8-4EFA-A55C-BA8477C34E69}"/>
+    <hyperlink ref="A28" location="ModelResults!A1" display="ModelResults" xr:uid="{3CA7F226-B03F-4808-B650-5E9C9BA21A1C}"/>
+    <hyperlink ref="A29" location="modpar!A1" display="modpar" xr:uid="{D1930D22-B037-4F78-BD62-9C562B823650}"/>
+    <hyperlink ref="A30" location="Num_Days!A1" display="Num_Days" xr:uid="{C5CE8958-2F63-4FA5-84A8-93C0F4AB402B}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="ObjectiveVal" xr:uid="{0A55CF79-56F7-40E1-9F94-3336F0BD9A96}"/>
+    <hyperlink ref="A32" location="Observed_Rel!A1" display="Observed_Rel" xr:uid="{58701C8A-BAC4-41EE-8C6D-0B95F70840F6}"/>
+    <hyperlink ref="A33" location="p!A1" display="p" xr:uid="{E0D26BD0-AD4A-4CE5-A495-9FCFAB4AB6FE}"/>
+    <hyperlink ref="A35" location="Scalar!A1" display="Released_vol" xr:uid="{23F449CC-243C-4248-87F4-F3458F62B33A}"/>
+    <hyperlink ref="A36" location="RStore!A1" display="RStore" xr:uid="{1F140437-67F7-4187-A167-F19881F45424}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Saturdays" xr:uid="{C6AE0C9B-14DA-4FE8-B67A-6D09E2FDCC97}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="Sstore" xr:uid="{65E65D18-7550-471B-AB9C-DF39D1ADFA03}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="storage" xr:uid="{08F33F6D-A9A8-4908-A7E4-94AA4DC9DA1E}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="Sundays" xr:uid="{10C83ED2-422D-4722-A656-62A967A93F35}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="Totaldays" xr:uid="{62AE3D08-9DA7-4F1C-96BD-2FDB1BE32BD2}"/>
+    <hyperlink ref="A42" location="Scalar!A1" display="Weekdays" xr:uid="{E1B5AA7A-F16D-45C2-BACC-1590A16FFDD2}"/>
+    <hyperlink ref="A43" location="XStore!A1" display="XStore" xr:uid="{777C9E95-504B-4FA1-AA1C-0B0AE02E0548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B825ED-4C52-4A8B-9425-BE1367AB77BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A8F8FC-232F-4878-8426-4FBA40589083}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,16 +1662,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{582634C5-614B-4F7F-AAE5-6116EFD05204}"/>
+  <autoFilter ref="A3:E6" xr:uid="{FA0FE6A9-9DC9-4F2A-994A-C76D48F31009}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2EBFF66B-B493-4225-BF0F-5CF13D7D88E0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{73B3DD09-2F91-4BE1-A27E-84FC8C7005A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD9ECC1-CA0C-4A07-AFA3-D3240E139E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C136B40-8F98-43A7-8FFC-08419611086B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1766,16 +1766,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E6" xr:uid="{E5EC04ED-7895-4E81-95A7-6C324E7A8CB0}"/>
+  <autoFilter ref="A3:E6" xr:uid="{7C78CD64-491B-4986-914B-6654AB0BCF5B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5EE707D8-5565-4EEC-B9DE-DE2F2E46961F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{32C65252-6113-4722-8025-3BD289271F77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504B7737-5391-4AB2-9E65-9E70D514EA17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD48BFE-D7CF-4CC3-A577-CEA837624B67}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1942,16 +1942,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{803F3613-C818-4073-8E0E-96847F218FBD}"/>
+  <autoFilter ref="A3:F9" xr:uid="{A35B4941-19AB-41BC-A940-2003C6DF9D7F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A8F49444-7033-4693-B503-1955F8089706}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3DE6C3A1-2445-40D3-97FC-35028D7506D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34915D7-E53B-4202-87D0-5BC29F484084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94CB52C-60F9-442D-8604-BE1A5DDAD1F9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2002,16 +2002,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{ABEA5B32-1F6D-4DCA-9360-21FD3F9240DD}"/>
+  <autoFilter ref="A3:B5" xr:uid="{D748E687-1311-430A-93D1-76A4391BADAF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C9931240-BE16-44D4-970B-75887E490015}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{590218D5-CD3C-4C2D-A6AC-F27334104DF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFFD34D-086D-4A9D-8952-0112C5AD92DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FB6710-3C59-4763-AD41-6C3D97C09EB5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2059,16 +2059,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{DB831406-61BA-495D-B7B0-C8C418D72680}"/>
+  <autoFilter ref="A3:A5" xr:uid="{FBBFC627-DE8D-4CE7-8E4B-44133F46A2E8}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F66BBD65-B6C7-40BA-A149-BD97168FA747}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{41F586D3-600C-4130-97C7-D0F27FF01FB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B7659-515B-41D6-BEBA-820E80C9ABA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20EF8F8-B7F6-464E-9363-8DA848DF7A69}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2127,16 +2127,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B6" xr:uid="{522EF13F-95BD-47F2-95D3-F0B385FB8E3F}"/>
+  <autoFilter ref="A3:B6" xr:uid="{CE1BFEEA-81D5-4F62-B9F8-BD708810DBE2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{04CBB82A-8970-48E1-B7E9-129536A5465D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{66C468EB-D39C-4C85-AF5B-A699338080CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363946F1-DE0F-49C4-BFB3-925A8E8D0B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B554B460-2D59-423A-B82E-6820A6AD5D0C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2240,16 +2240,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{9BABAE05-10AF-475E-9F05-C37A9869C205}"/>
+  <autoFilter ref="A3:C9" xr:uid="{F35BD4B9-4352-4D25-B5FF-D38905BAD20E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CC45F2CD-DED5-4EEE-A671-55204C6A41CC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7967D07F-6734-4ECF-8214-B7C70071BE62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108ED6B-2845-487F-947F-27BB7E6D50BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0B7A4B-66DF-445F-9C36-460DF83BF793}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2297,16 +2297,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{31D36FBA-1A29-4172-9946-D110771E7CFA}"/>
+  <autoFilter ref="A3:A5" xr:uid="{779A2CAA-6234-4D51-B6FB-08F38CAA6A43}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7C03D588-62A8-44FD-BD9C-9C21DEEF0553}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A1C45297-E6DF-4FD8-8D96-9CEC7971A71B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D2EF6-3F73-470F-AFE6-79BF91EEE2B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C55DCE-B671-46CD-8293-65C5DA1D5AAC}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2410,16 +2410,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{E592E5F4-5239-42FA-95BF-9F51D0DD01F8}"/>
+  <autoFilter ref="A3:C9" xr:uid="{B5D37DCB-5F67-4AD2-85A7-248131EE31C2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8CD6E704-A45E-4A65-B0B7-DB1D881728E0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F93709DC-D64D-4262-9B24-8BB22312CE9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEB7CB5-C179-4EFB-ABD4-4AD3216DD766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28AC471-FB6E-4518-90F6-7BD5C093DDFB}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,16 +2523,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{078D9C8B-4170-4169-B7D6-F9AF3D1F508B}"/>
+  <autoFilter ref="A3:C9" xr:uid="{A514A954-DEF0-4171-ABD6-65FC4EDAEAD2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2E89085C-3B55-4094-B526-14A0D900C496}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{AEFD62DA-7DA5-435A-8B53-91675D2B0B00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AC5CC8-5701-485F-BE90-00E5A2F05F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2832C608-DCF9-461B-8C34-2D4D008CFFC7}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>21515352.221710406</v>
+        <v>27641618.039118402</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -2922,14 +2922,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{25F5CBAD-98D5-477A-8CBA-79CC91D394E4}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F847AFC9-AB4D-404C-A22E-2A8992B006DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64E406-AEFD-425D-861D-0E22ECA7B99E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB8FAA8-D792-43A8-A360-7FB4A2549470}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2976,16 +2976,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{B26F01E7-E6D5-4660-92F6-9DA3DC15ECEE}"/>
+  <autoFilter ref="A3:A6" xr:uid="{B89A3A8E-C77E-430B-8623-03EFDBAD4BEE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{685C4166-A9EF-4993-AF36-5F88ACADDFDC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EC433DC2-7B7A-4DC3-91AD-16ED70255944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E7FEA8-6221-47BD-8005-3D92190B0B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8AB7E8-BE88-4A16-B7D0-FC9932254273}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{AE9171C4-CDEF-4DC3-BEDC-E9D08745EA00}"/>
+  <autoFilter ref="A3:B5" xr:uid="{FDD867A0-6923-4D34-B51B-D54C6C23A3CE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A109C748-3C61-4573-B006-DCF6738EF62C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1BA256CC-528F-402A-A352-2DB6C0357141}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939C91A0-D56E-47CD-8B55-C3E1881FA4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD81D183-1DC7-4D11-BE82-DD828C8AB9D4}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3145,20 +3145,20 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>49.7</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{F39B4586-02A3-4166-9F92-5F766AE1D5B6}"/>
+  <autoFilter ref="A3:C9" xr:uid="{F829B7AF-CF57-4DB4-A20C-05FF352008E1}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A9BA2429-4105-4D73-B0F5-E505B67EDF3B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{40B51BB1-3A2D-4F2C-BF09-3BBC8D8DEBE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FCB384-16EE-4EAE-BADA-DE049ED726F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321FD17E-659B-4107-BAF4-09633F8D07FE}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>316</v>
+        <v>198.8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3321,20 +3321,20 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1143.1000000000001</v>
+        <v>1817</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{326A8F34-F20F-4BBE-A963-6AD7B3BB2324}"/>
+  <autoFilter ref="A3:F9" xr:uid="{69A4C3F4-B72B-40AB-8D10-E07DDFEE6B0B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B998521F-0F0C-4F2C-A1C2-7C5415D17362}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{861E4F69-B1E0-495E-A444-DC63A7979216}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ED2F75-1CA9-4E46-8273-304314063138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF95788B-0034-420D-A234-A62B92459D94}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3417,7 +3417,7 @@
         <v>11024.26</v>
       </c>
       <c r="F5">
-        <v>187.83040000000003</v>
+        <v>118.16672000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3497,20 +3497,20 @@
         <v>17211.28</v>
       </c>
       <c r="F9">
-        <v>679.45864000000017</v>
+        <v>1080.0248000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{625B4933-0423-4AC0-A052-488FA6A2BF97}"/>
+  <autoFilter ref="A3:F9" xr:uid="{77233619-8707-4198-B4D0-BA0C8E47CE62}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2DD8E9AA-E63F-4EDE-A57E-C436B349EFDF}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E0786ABF-3E0C-4EBD-8B5F-41274E8B93F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B5A165-3499-432B-989F-F2122102AF49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC6502-6B6C-4779-A282-D47559D75148}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3677,16 +3677,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{EA3F105B-5768-4A02-94B5-FE126F658180}"/>
+  <autoFilter ref="A3:F9" xr:uid="{DB32E722-9158-4897-AFCA-17F417706752}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{13115DB1-4F02-4593-AAFA-336C6C503886}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CB6EFAC9-52A1-4BB8-83F5-2EA2A5B1595C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3706862-2FA9-4F9F-9613-EFA109AC1501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99D01C5-3361-4491-8C57-4DE52C714415}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3853,9 +3853,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{AA5E83B0-7114-47F6-AD5C-9A3714C45908}"/>
+  <autoFilter ref="A3:F9" xr:uid="{5EB6C86D-FE40-4C26-B47A-F4BFF398D104}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{115C1AD5-44FC-433A-8AAA-FFB8272A6770}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{598177BA-7C48-478A-A918-525F118EDCD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
